--- a/inputs/new_measured.xlsx
+++ b/inputs/new_measured.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>CooX</t>
   </si>
@@ -43,12 +43,18 @@
   <si>
     <t>month</t>
   </si>
+  <si>
+    <t>iso_18</t>
+  </si>
+  <si>
+    <t>iso_2h</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,16 +62,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,13 +102,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,6 +149,2032 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>iso2h</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-13.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-13.178923231189192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10.996916749961747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.9561251032072597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C059-4701-B977-A8D9A2BD4E7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>no</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.6443888888888889"/>
+                  <c:y val="0.23268849206349207"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C059-4701-B977-A8D9A2BD4E7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="130759071"/>
+        <c:axId val="130759487"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="130759071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-8"/>
+          <c:min val="-14"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130759487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130759487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-7"/>
+          <c:min val="-14"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130759071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>iso_2h</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-89.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-91.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-57.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-84.887214835455822</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-71.961259198763074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-43.369514879703985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C537-4C57-B776-08FC701D3C5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>no</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.40550000000000003"/>
+                  <c:y val="0.21296296296296297"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C537-4C57-B776-08FC701D3C5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="130749087"/>
+        <c:axId val="130769055"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="130749087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-50"/>
+          <c:min val="-100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130769055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130769055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-40"/>
+          <c:min val="-90"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130749087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>270510</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>232410</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,10 +2440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -373,7 +2453,7 @@
     <col min="3" max="5" width="8.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,8 +2472,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>618136</v>
       </c>
@@ -412,68 +2498,150 @@
       <c r="F2">
         <v>3</v>
       </c>
+      <c r="G2" s="3">
+        <v>-13.178923231189192</v>
+      </c>
+      <c r="H2" s="3">
+        <v>-84.887214835455822</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
+        <v>618669</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7387433</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3667</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-13.3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-91.3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-10.996916749961747</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-71.961259198763074</v>
+      </c>
+      <c r="I3">
+        <v>-100</v>
+      </c>
+      <c r="J3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7">
         <v>603583</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="7">
         <v>7401666</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="7">
         <v>2576</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="7">
+        <v>-9</v>
+      </c>
+      <c r="E4" s="7">
+        <f>AVERAGE(E5:E6)</f>
+        <v>-57.65</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9">
+        <v>-7.9561251032072597</v>
+      </c>
+      <c r="H4" s="9">
+        <v>-43.369514879703985</v>
+      </c>
+      <c r="I4" s="8">
+        <v>-20</v>
+      </c>
+      <c r="J4" s="8">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4">
+        <v>603583</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7401666</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2576</v>
+      </c>
+      <c r="D5" s="4">
         <v>-10</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E5" s="4">
         <v>-67.5</v>
       </c>
-      <c r="F3">
+      <c r="F5" s="5">
         <v>3</v>
       </c>
+      <c r="G5" s="6">
+        <v>-7.9561251032072597</v>
+      </c>
+      <c r="H5" s="6">
+        <v>-43.369514879703985</v>
+      </c>
+      <c r="I5" s="5">
+        <v>-20</v>
+      </c>
+      <c r="J5" s="5">
+        <v>-20</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1">
+    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4">
         <v>603583</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B6" s="4">
         <v>7401666</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C6" s="4">
         <v>2576</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D6" s="4">
         <v>-8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E6" s="4">
         <v>-47.8</v>
       </c>
-      <c r="F4">
+      <c r="F6" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1">
-        <v>618669</v>
-      </c>
-      <c r="B5" s="1">
-        <v>7387433</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3667</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-13.3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-91.3</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
+      <c r="G6" s="6">
+        <v>-7.9561251032072597</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-43.369514879703985</v>
+      </c>
+      <c r="I6" s="5">
+        <v>-60</v>
+      </c>
+      <c r="J6" s="5">
+        <v>-60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>